--- a/回归特征值计算.xlsx
+++ b/回归特征值计算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="27945" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="化学成分" sheetId="1" r:id="rId1"/>
@@ -1378,36 +1378,36 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomRight" activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="11.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.87962962962963" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.37962962962963" style="8" customWidth="1"/>
-    <col min="4" max="5" width="6.87962962962963" style="8" customWidth="1"/>
-    <col min="6" max="7" width="6.37962962962963" style="8" customWidth="1"/>
-    <col min="8" max="8" width="7.37962962962963" style="8" customWidth="1"/>
-    <col min="9" max="10" width="6.87962962962963" style="8" customWidth="1"/>
-    <col min="11" max="11" width="6.37962962962963" style="8" customWidth="1"/>
+    <col min="2" max="2" width="6.88333333333333" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.38333333333333" style="8" customWidth="1"/>
+    <col min="4" max="5" width="6.88333333333333" style="8" customWidth="1"/>
+    <col min="6" max="7" width="6.38333333333333" style="8" customWidth="1"/>
+    <col min="8" max="8" width="7.38333333333333" style="8" customWidth="1"/>
+    <col min="9" max="10" width="6.88333333333333" style="8" customWidth="1"/>
+    <col min="11" max="11" width="6.38333333333333" style="8" customWidth="1"/>
     <col min="12" max="12" width="7" style="8" customWidth="1"/>
-    <col min="13" max="13" width="8.62962962962963" style="8" customWidth="1"/>
-    <col min="14" max="14" width="7.62962962962963" style="8" customWidth="1"/>
-    <col min="15" max="16" width="6.62962962962963" style="8" customWidth="1"/>
-    <col min="17" max="17" width="6.37962962962963" style="8" customWidth="1"/>
-    <col min="18" max="18" width="7.62962962962963" style="8" customWidth="1"/>
-    <col min="19" max="21" width="6.62962962962963" style="8" customWidth="1"/>
-    <col min="22" max="22" width="9.88888888888889" style="8" customWidth="1"/>
-    <col min="23" max="23" width="10.4444444444444" style="8" customWidth="1"/>
+    <col min="13" max="13" width="8.63333333333333" style="8" customWidth="1"/>
+    <col min="14" max="14" width="7.63333333333333" style="8" customWidth="1"/>
+    <col min="15" max="16" width="6.63333333333333" style="8" customWidth="1"/>
+    <col min="17" max="17" width="6.38333333333333" style="8" customWidth="1"/>
+    <col min="18" max="18" width="7.63333333333333" style="8" customWidth="1"/>
+    <col min="19" max="21" width="6.63333333333333" style="8" customWidth="1"/>
+    <col min="22" max="22" width="9.89166666666667" style="8" customWidth="1"/>
+    <col min="23" max="23" width="10.4416666666667" style="8" customWidth="1"/>
     <col min="24" max="24" width="11.3333333333333" style="8" customWidth="1"/>
-    <col min="25" max="25" width="8.12962962962963" style="8" customWidth="1"/>
-    <col min="26" max="26" width="10.5555555555556" style="8" customWidth="1"/>
+    <col min="25" max="25" width="8.13333333333333" style="8" customWidth="1"/>
+    <col min="26" max="26" width="10.5583333333333" style="8" customWidth="1"/>
     <col min="27" max="27" width="10.5" style="8" customWidth="1"/>
     <col min="28" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="48" spans="1:27">
+    <row r="1" s="7" customFormat="1" ht="24" spans="1:27">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:27">
+    <row r="2" ht="16.5" spans="1:27">
       <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>195552</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:27">
+    <row r="3" ht="16.5" spans="1:27">
       <c r="A3" s="10" t="s">
         <v>28</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>254717</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:27">
+    <row r="4" ht="16.5" spans="1:27">
       <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>188598</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:27">
+    <row r="5" ht="16.5" spans="1:27">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>263668</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:27">
+    <row r="6" ht="16.5" spans="1:27">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:27">
+    <row r="7" ht="16.5" spans="1:27">
       <c r="A7" s="13" t="s">
         <v>32</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:27">
+    <row r="8" ht="16.5" spans="1:27">
       <c r="A8" s="10" t="s">
         <v>33</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>278527</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:27">
+    <row r="9" ht="16.5" spans="1:27">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>278527</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:27">
+    <row r="10" ht="16.5" spans="1:27">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>256824</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:27">
+    <row r="11" ht="16.5" spans="1:27">
       <c r="A11" s="13" t="s">
         <v>36</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>206393</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:27">
+    <row r="12" ht="16.5" spans="1:27">
       <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>256824</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:27">
+    <row r="13" ht="16.5" spans="1:27">
       <c r="A13" s="13" t="s">
         <v>38</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>278527</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:27">
+    <row r="14" ht="16.5" spans="1:27">
       <c r="A14" s="10" t="s">
         <v>39</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:27">
+    <row r="15" ht="16.5" spans="1:27">
       <c r="A15" s="13" t="s">
         <v>40</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>229246</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:27">
+    <row r="16" ht="16.5" spans="1:27">
       <c r="A16" s="17" t="s">
         <v>41</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>305306</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:27">
+    <row r="17" ht="16.5" spans="1:27">
       <c r="A17" s="10" t="s">
         <v>42</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>256824</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:27">
+    <row r="18" ht="16.5" spans="1:27">
       <c r="A18" s="10" t="s">
         <v>43</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>181803</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:27">
+    <row r="19" ht="16.5" spans="1:27">
       <c r="A19" s="10" t="s">
         <v>44</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>274842</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:27">
+    <row r="20" ht="16.5" spans="1:27">
       <c r="A20" s="10" t="s">
         <v>45</v>
       </c>
@@ -3031,13 +3031,13 @@
         <v>1.16</v>
       </c>
       <c r="P20" s="26">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="Q20" s="26">
-        <v>0.838</v>
+        <v>8.4</v>
       </c>
       <c r="R20" s="26">
-        <v>1.415</v>
+        <v>14.2</v>
       </c>
       <c r="S20" s="26">
         <v>39.36</v>
@@ -3067,7 +3067,7 @@
         <v>201819</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:27">
+    <row r="21" ht="16.5" spans="1:27">
       <c r="A21" s="18" t="s">
         <v>46</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>237385</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:27">
+    <row r="22" ht="16.5" spans="1:27">
       <c r="A22" s="11" t="s">
         <v>47</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:27">
+    <row r="23" ht="16.5" spans="1:27">
       <c r="A23" s="11" t="s">
         <v>48</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:27">
+    <row r="24" ht="16.5" spans="1:27">
       <c r="A24" s="21" t="s">
         <v>49</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:27">
+    <row r="25" ht="16.5" spans="1:27">
       <c r="A25" s="21" t="s">
         <v>50</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:27">
+    <row r="26" ht="16.5" spans="1:27">
       <c r="A26" s="21" t="s">
         <v>51</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:27">
+    <row r="27" ht="16.5" spans="1:27">
       <c r="A27" s="21" t="s">
         <v>52</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:27">
+    <row r="28" ht="16.5" spans="1:27">
       <c r="A28" s="21" t="s">
         <v>53</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:27">
+    <row r="29" ht="16.5" spans="1:27">
       <c r="A29" s="21" t="s">
         <v>54</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:27">
+    <row r="30" ht="16.5" spans="1:27">
       <c r="A30" s="21" t="s">
         <v>55</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:27">
+    <row r="31" ht="16.5" spans="1:27">
       <c r="A31" s="23" t="s">
         <v>56</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:27">
+    <row r="32" ht="16.5" spans="1:27">
       <c r="A32" s="23" t="s">
         <v>57</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:27">
+    <row r="33" ht="16.5" spans="1:27">
       <c r="A33" s="23" t="s">
         <v>58</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:27">
+    <row r="34" ht="16.5" spans="1:27">
       <c r="A34" s="23" t="s">
         <v>59</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:27">
+    <row r="35" ht="16.5" spans="1:27">
       <c r="A35" s="21" t="s">
         <v>60</v>
       </c>
@@ -4330,29 +4330,29 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.5555555555556" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.5583333333333" style="2" customWidth="1"/>
     <col min="3" max="4" width="9.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.88888888888889" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.4444444444444" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.7777777777778" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.89166666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.4416666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.775" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.33333333333333" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.36111111111111" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.77777777777778" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.35833333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.775" style="2" customWidth="1"/>
     <col min="12" max="12" width="10" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.1296296296296" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.37962962962963" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.1333333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.38333333333333" style="2" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="2" customWidth="1"/>
     <col min="16" max="16" width="7.08333333333333" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.22222222222222" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.225" style="2" customWidth="1"/>
     <col min="18" max="18" width="11" style="2" customWidth="1"/>
-    <col min="19" max="19" width="7.22222222222222" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.225" style="2" customWidth="1"/>
     <col min="20" max="20" width="12" style="2" customWidth="1"/>
     <col min="21" max="21" width="9.25" style="2" customWidth="1"/>
-    <col min="22" max="22" width="10.1296296296296" style="2" customWidth="1"/>
+    <col min="22" max="22" width="10.1333333333333" style="2" customWidth="1"/>
     <col min="23" max="23" width="7.5" style="2" customWidth="1"/>
     <col min="24" max="16368" width="10" style="2"/>
   </cols>
@@ -26633,7 +26633,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
